--- a/Code/Results/Cases/Case_1_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.95337270653552</v>
+        <v>17.67280729510103</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.194257925227424</v>
+        <v>8.566804068555699</v>
       </c>
       <c r="E2">
-        <v>15.98821703829352</v>
+        <v>14.73093161522375</v>
       </c>
       <c r="F2">
-        <v>26.39900970303573</v>
+        <v>37.16817263543215</v>
       </c>
       <c r="G2">
-        <v>40.80518509681102</v>
+        <v>44.26171340746591</v>
       </c>
       <c r="H2">
-        <v>11.97737744617885</v>
+        <v>17.82343068107678</v>
       </c>
       <c r="I2">
-        <v>14.9295321912766</v>
+        <v>27.02516683233621</v>
       </c>
       <c r="J2">
-        <v>9.972589569311825</v>
+        <v>10.86552837249869</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.12449225035858</v>
+        <v>12.92183536435359</v>
       </c>
       <c r="M2">
-        <v>16.84363283034557</v>
+        <v>18.02849632829411</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.69577531210379</v>
+        <v>17.26709732688305</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.85777111344099</v>
+        <v>8.465231213391602</v>
       </c>
       <c r="E3">
-        <v>15.30083074456542</v>
+        <v>14.49612687830674</v>
       </c>
       <c r="F3">
-        <v>25.76208270943348</v>
+        <v>37.27348896293255</v>
       </c>
       <c r="G3">
-        <v>38.79764122497104</v>
+        <v>44.10907488811738</v>
       </c>
       <c r="H3">
-        <v>11.74519245099568</v>
+        <v>17.87000092605768</v>
       </c>
       <c r="I3">
-        <v>15.60681696196598</v>
+        <v>27.24766214732932</v>
       </c>
       <c r="J3">
-        <v>9.658497699016197</v>
+        <v>10.77622715890346</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.3464614420432</v>
+        <v>12.71532515388489</v>
       </c>
       <c r="M3">
-        <v>15.90437699472569</v>
+        <v>17.79734882248679</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.88407802258877</v>
+        <v>17.01439893587058</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.645351048837913</v>
+        <v>8.40152559378604</v>
       </c>
       <c r="E4">
-        <v>14.86482171623423</v>
+        <v>14.34920236088944</v>
       </c>
       <c r="F4">
-        <v>25.4077900033748</v>
+        <v>37.35128231664274</v>
       </c>
       <c r="G4">
-        <v>37.58306071377741</v>
+        <v>44.03544366729268</v>
       </c>
       <c r="H4">
-        <v>11.61685760745872</v>
+        <v>17.90370112008706</v>
       </c>
       <c r="I4">
-        <v>16.03133146486861</v>
+        <v>27.39090549643653</v>
       </c>
       <c r="J4">
-        <v>9.461496018205581</v>
+        <v>10.7209460473496</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.84771460441197</v>
+        <v>12.58823988668032</v>
       </c>
       <c r="M4">
-        <v>15.30363714067748</v>
+        <v>17.65560099027812</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.54343374850415</v>
+        <v>16.91065004202817</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.557359062351855</v>
+        <v>8.375240514587116</v>
       </c>
       <c r="E5">
-        <v>14.68375970664443</v>
+        <v>14.28868306928892</v>
       </c>
       <c r="F5">
-        <v>25.27247494840598</v>
+        <v>37.38626375789543</v>
       </c>
       <c r="G5">
-        <v>37.09322065853306</v>
+        <v>44.01049746748826</v>
       </c>
       <c r="H5">
-        <v>11.56804191338172</v>
+        <v>17.91871189734099</v>
       </c>
       <c r="I5">
-        <v>16.20662259103967</v>
+        <v>27.45095136547477</v>
       </c>
       <c r="J5">
-        <v>9.380235980991346</v>
+        <v>10.69831722870684</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.6392825723315</v>
+        <v>12.53643628638564</v>
       </c>
       <c r="M5">
-        <v>15.05295488445003</v>
+        <v>17.59793751907775</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.48627658046674</v>
+        <v>16.89337990886347</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.54266295336498</v>
+        <v>8.370856660630462</v>
       </c>
       <c r="E6">
-        <v>14.65349419211933</v>
+        <v>14.27859621971044</v>
       </c>
       <c r="F6">
-        <v>25.2505471017594</v>
+        <v>37.39226985715975</v>
       </c>
       <c r="G6">
-        <v>37.0122100325609</v>
+        <v>44.00666076894236</v>
       </c>
       <c r="H6">
-        <v>11.56014339454743</v>
+        <v>17.92128140465937</v>
       </c>
       <c r="I6">
-        <v>16.23587173583145</v>
+        <v>27.46102315408627</v>
       </c>
       <c r="J6">
-        <v>9.366685609037708</v>
+        <v>10.69455395553126</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.60436282597758</v>
+        <v>12.52783508774188</v>
       </c>
       <c r="M6">
-        <v>15.01098017850287</v>
+        <v>17.58837019345007</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87952382462166</v>
+        <v>17.01300269188429</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.644170091676325</v>
+        <v>8.401172401539245</v>
       </c>
       <c r="E7">
-        <v>14.86239337303574</v>
+        <v>14.34838873179544</v>
       </c>
       <c r="F7">
-        <v>25.40592867998684</v>
+        <v>37.351740837195</v>
       </c>
       <c r="G7">
-        <v>37.57643304995605</v>
+        <v>44.03508674699776</v>
       </c>
       <c r="H7">
-        <v>11.61618529833814</v>
+        <v>17.9038983960227</v>
       </c>
       <c r="I7">
-        <v>16.0336860433022</v>
+        <v>27.39170851434771</v>
       </c>
       <c r="J7">
-        <v>9.460403996751321</v>
+        <v>10.72064126183601</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.84492446792877</v>
+        <v>12.5875412316418</v>
       </c>
       <c r="M7">
-        <v>15.3002798891854</v>
+        <v>17.65482284301115</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.52798689792493</v>
+        <v>17.53374032343685</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.079460550611346</v>
+        <v>8.53206705604469</v>
       </c>
       <c r="E8">
-        <v>15.75416747306347</v>
+        <v>14.65056959480912</v>
       </c>
       <c r="F8">
-        <v>26.1716611515003</v>
+        <v>37.20174841720831</v>
       </c>
       <c r="G8">
-        <v>40.10954985329233</v>
+        <v>44.20492131869226</v>
       </c>
       <c r="H8">
-        <v>11.89431236695469</v>
+        <v>17.83842472800015</v>
       </c>
       <c r="I8">
-        <v>15.16133783286629</v>
+        <v>27.10051058968621</v>
       </c>
       <c r="J8">
-        <v>9.865186574955214</v>
+        <v>10.83483773909352</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.86064225061305</v>
+        <v>12.85072413952792</v>
       </c>
       <c r="M8">
-        <v>16.52485233987689</v>
+        <v>17.94879289674019</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.44576098511063</v>
+        <v>18.52098952962486</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.886118653144568</v>
+        <v>8.777598531975755</v>
       </c>
       <c r="E9">
-        <v>17.38820991653635</v>
+        <v>15.21935368572513</v>
       </c>
       <c r="F9">
-        <v>27.97194125540945</v>
+        <v>37.01267644864946</v>
       </c>
       <c r="G9">
-        <v>45.20055055421645</v>
+        <v>44.69660403036501</v>
       </c>
       <c r="H9">
-        <v>12.55648059233468</v>
+        <v>17.7508079006646</v>
       </c>
       <c r="I9">
-        <v>13.51350518826703</v>
+        <v>26.5818148201891</v>
       </c>
       <c r="J9">
-        <v>10.62376630219316</v>
+        <v>11.05469350867527</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.84329506037627</v>
+        <v>13.36209330000712</v>
       </c>
       <c r="M9">
-        <v>18.83687129245824</v>
+        <v>18.5242643127413</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.44865396620277</v>
+        <v>19.2188670303549</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.450074999257843</v>
+        <v>8.950514207585059</v>
       </c>
       <c r="E10">
-        <v>18.51532121413043</v>
+        <v>15.62025179224768</v>
       </c>
       <c r="F10">
-        <v>29.48485521238038</v>
+        <v>36.93894184721142</v>
       </c>
       <c r="G10">
-        <v>48.99898912925107</v>
+        <v>45.15291194557592</v>
       </c>
       <c r="H10">
-        <v>13.11915744223368</v>
+        <v>17.71163263210866</v>
       </c>
       <c r="I10">
-        <v>12.33232962155463</v>
+        <v>26.23226308940128</v>
       </c>
       <c r="J10">
-        <v>11.15729099940907</v>
+        <v>11.21305107262435</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.20882231194042</v>
+        <v>13.73171637095222</v>
       </c>
       <c r="M10">
-        <v>20.53973945538933</v>
+        <v>18.94326259167666</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.33655288047417</v>
+        <v>19.52910024305969</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.700673875998502</v>
+        <v>9.027417630849719</v>
       </c>
       <c r="E11">
-        <v>19.01191512345793</v>
+        <v>15.79845191475681</v>
       </c>
       <c r="F11">
-        <v>30.21613812746634</v>
+        <v>36.91975941555327</v>
       </c>
       <c r="G11">
-        <v>50.73882705194246</v>
+        <v>45.38060788478367</v>
       </c>
       <c r="H11">
-        <v>13.39275053148161</v>
+        <v>17.69934590503487</v>
       </c>
       <c r="I11">
-        <v>11.79925309718963</v>
+        <v>26.08001016398165</v>
       </c>
       <c r="J11">
-        <v>11.39454794521906</v>
+        <v>11.28426072508588</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.80105020214726</v>
+        <v>13.89790312216307</v>
       </c>
       <c r="M11">
-        <v>21.27729270740862</v>
+        <v>19.13239254272091</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.66627773299611</v>
+        <v>19.64543993190046</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.794755341516927</v>
+        <v>9.05627521223294</v>
       </c>
       <c r="E12">
-        <v>19.19765594857654</v>
+        <v>15.86529344538414</v>
       </c>
       <c r="F12">
-        <v>30.49940878916496</v>
+        <v>36.91457485165191</v>
       </c>
       <c r="G12">
-        <v>51.39950555021736</v>
+        <v>45.46966617221061</v>
       </c>
       <c r="H12">
-        <v>13.49898435338786</v>
+        <v>17.69549355220925</v>
       </c>
       <c r="I12">
-        <v>11.59781045872651</v>
+        <v>26.02332196582148</v>
       </c>
       <c r="J12">
-        <v>11.48359746827162</v>
+        <v>11.31109497182191</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.02126500887632</v>
+        <v>13.96050126104765</v>
       </c>
       <c r="M12">
-        <v>21.55137701721874</v>
+        <v>19.20374577172867</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.5955525437611</v>
+        <v>19.62043623871823</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.774528642415893</v>
+        <v>9.050072138576279</v>
       </c>
       <c r="E13">
-        <v>19.15775555851837</v>
+        <v>15.85092694850429</v>
       </c>
       <c r="F13">
-        <v>30.43811603951457</v>
+        <v>36.91559874695511</v>
       </c>
       <c r="G13">
-        <v>51.25713101046458</v>
+        <v>45.45036080896734</v>
       </c>
       <c r="H13">
-        <v>13.47598636853642</v>
+        <v>17.69628756181597</v>
       </c>
       <c r="I13">
-        <v>11.64117911896403</v>
+        <v>26.03548787556135</v>
       </c>
       <c r="J13">
-        <v>11.46445445915458</v>
+        <v>11.30532176923284</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.97401594015614</v>
+        <v>13.94703525010801</v>
       </c>
       <c r="M13">
-        <v>21.4925777438515</v>
+        <v>19.18839125996546</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.36380906160811</v>
+        <v>19.53869494168995</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.708430058036621</v>
+        <v>9.029797118043073</v>
       </c>
       <c r="E14">
-        <v>19.02724224347025</v>
+        <v>15.80396403164682</v>
       </c>
       <c r="F14">
-        <v>30.23931467343698</v>
+        <v>36.91929112751973</v>
       </c>
       <c r="G14">
-        <v>50.7931432858982</v>
+        <v>45.38787831184377</v>
       </c>
       <c r="H14">
-        <v>13.40143714987194</v>
+        <v>17.69901290490404</v>
       </c>
       <c r="I14">
-        <v>11.78267296342725</v>
+        <v>26.07532704881418</v>
       </c>
       <c r="J14">
-        <v>11.40189005215334</v>
+        <v>11.28647109564453</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.81924785690364</v>
+        <v>13.90306007458638</v>
       </c>
       <c r="M14">
-        <v>21.29994548278686</v>
+        <v>19.1382684546792</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.22101678419259</v>
+        <v>19.48847492522613</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.667838114991687</v>
+        <v>9.0173433591854</v>
       </c>
       <c r="E15">
-        <v>18.94699920418666</v>
+        <v>15.77511354327884</v>
       </c>
       <c r="F15">
-        <v>30.1183753624464</v>
+        <v>36.92182401595133</v>
       </c>
       <c r="G15">
-        <v>50.50918356136754</v>
+        <v>45.3499732876508</v>
       </c>
       <c r="H15">
-        <v>13.35611915578862</v>
+        <v>17.70078661363931</v>
       </c>
       <c r="I15">
-        <v>11.86939114063492</v>
+        <v>26.09985542384111</v>
       </c>
       <c r="J15">
-        <v>11.36346392714941</v>
+        <v>11.27490705424669</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.72392423608963</v>
+        <v>13.87607912224094</v>
       </c>
       <c r="M15">
-        <v>21.18127785879045</v>
+        <v>19.10753054602412</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.38971003846952</v>
+        <v>19.19843837929366</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.433581182279346</v>
+        <v>8.945452048711072</v>
       </c>
       <c r="E16">
-        <v>18.48254339151778</v>
+        <v>15.60851867013577</v>
       </c>
       <c r="F16">
-        <v>29.43794325343933</v>
+        <v>36.9404856999488</v>
       </c>
       <c r="G16">
-        <v>48.88553342260115</v>
+        <v>45.13843151985365</v>
       </c>
       <c r="H16">
-        <v>13.10164007307923</v>
+        <v>17.71254736189008</v>
       </c>
       <c r="I16">
-        <v>12.36723704141052</v>
+        <v>26.24234874150797</v>
       </c>
       <c r="J16">
-        <v>11.14167488408976</v>
+        <v>11.20837964256683</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.1695457106052</v>
+        <v>13.7208118214832</v>
       </c>
       <c r="M16">
-        <v>20.49080246479361</v>
+        <v>18.93086816816527</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.86799908443838</v>
+        <v>19.01858480415968</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.288372574821196</v>
+        <v>8.900890826519406</v>
       </c>
       <c r="E17">
-        <v>18.19348275073704</v>
+        <v>15.50522135994574</v>
       </c>
       <c r="F17">
-        <v>29.03164935960703</v>
+        <v>36.95562281003312</v>
       </c>
       <c r="G17">
-        <v>47.89256611541246</v>
+        <v>45.01377147435171</v>
       </c>
       <c r="H17">
-        <v>12.95010451304541</v>
+        <v>17.72118304891633</v>
       </c>
       <c r="I17">
-        <v>12.67360686388782</v>
+        <v>26.33149130707195</v>
       </c>
       <c r="J17">
-        <v>11.00420801812398</v>
+        <v>11.16734639538536</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.82211418712229</v>
+        <v>13.6250216280931</v>
       </c>
       <c r="M17">
-        <v>20.05780195611174</v>
+        <v>18.8220748347903</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.56357066894493</v>
+        <v>18.91446221769976</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.20428923950014</v>
+        <v>8.875095693013895</v>
       </c>
       <c r="E18">
-        <v>18.02570179994758</v>
+        <v>15.4454171583443</v>
       </c>
       <c r="F18">
-        <v>28.80200096789745</v>
+        <v>36.96568013561695</v>
       </c>
       <c r="G18">
-        <v>47.32254106537873</v>
+        <v>44.94396802979233</v>
       </c>
       <c r="H18">
-        <v>12.86459832791736</v>
+        <v>17.72667074093311</v>
       </c>
       <c r="I18">
-        <v>12.85023447090407</v>
+        <v>26.38340034765502</v>
       </c>
       <c r="J18">
-        <v>10.92462810138946</v>
+        <v>11.14366794323208</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.61954766686251</v>
+        <v>13.56974443319198</v>
       </c>
       <c r="M18">
-        <v>19.80525242752619</v>
+        <v>18.75936414579208</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.45974466846717</v>
+        <v>18.87909519811777</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.175722365164193</v>
+        <v>8.866333972789331</v>
       </c>
       <c r="E19">
-        <v>17.9686328844641</v>
+        <v>15.42510267599046</v>
       </c>
       <c r="F19">
-        <v>28.7249357326172</v>
+        <v>36.96931691357486</v>
       </c>
       <c r="G19">
-        <v>47.12972867841599</v>
+        <v>44.9206613672885</v>
       </c>
       <c r="H19">
-        <v>12.83592861247478</v>
+        <v>17.72861805900967</v>
       </c>
       <c r="I19">
-        <v>12.91011380069905</v>
+        <v>26.40108535724963</v>
       </c>
       <c r="J19">
-        <v>10.89759619478917</v>
+        <v>11.13563794056511</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.55048938509421</v>
+        <v>13.55099901830257</v>
       </c>
       <c r="M19">
-        <v>19.71913898548317</v>
+        <v>18.73810976405898</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.92398578916665</v>
+        <v>19.03780118113141</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.3038883241581</v>
+        <v>8.90565157438245</v>
       </c>
       <c r="E20">
-        <v>18.22441115285859</v>
+        <v>15.51625822267313</v>
       </c>
       <c r="F20">
-        <v>29.0744807584154</v>
+        <v>36.95387151962932</v>
       </c>
       <c r="G20">
-        <v>47.99815457161809</v>
+        <v>45.02684574103475</v>
       </c>
       <c r="H20">
-        <v>12.96606399712563</v>
+        <v>17.7202098433753</v>
       </c>
       <c r="I20">
-        <v>12.64095197929069</v>
+        <v>26.3219360830503</v>
       </c>
       <c r="J20">
-        <v>11.01889477168322</v>
+        <v>11.17172253511523</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.85938093305966</v>
+        <v>13.63523779488539</v>
       </c>
       <c r="M20">
-        <v>20.10425689253189</v>
+        <v>18.83367050673828</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.43205310106875</v>
+        <v>19.56273599876243</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.727866529001613</v>
+        <v>9.035759639222221</v>
       </c>
       <c r="E21">
-        <v>19.06563960351949</v>
+        <v>15.81777582350953</v>
       </c>
       <c r="F21">
-        <v>30.29753367110468</v>
+        <v>36.9181500449972</v>
       </c>
       <c r="G21">
-        <v>50.92937596957382</v>
+        <v>45.40615450359481</v>
       </c>
       <c r="H21">
-        <v>13.42326185994199</v>
+        <v>17.69819065016766</v>
       </c>
       <c r="I21">
-        <v>11.74110291196415</v>
+        <v>26.06359912522476</v>
       </c>
       <c r="J21">
-        <v>11.42028833375333</v>
+        <v>11.29201165554145</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.86481591203859</v>
+        <v>13.91598609331154</v>
       </c>
       <c r="M21">
-        <v>21.35666663981136</v>
+        <v>19.15299838488729</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.37982766096594</v>
+        <v>19.89913255731577</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.00024144465748</v>
+        <v>9.119248526729004</v>
       </c>
       <c r="E22">
-        <v>19.60199854733967</v>
+        <v>16.0110937376956</v>
       </c>
       <c r="F22">
-        <v>31.1339845148174</v>
+        <v>36.9069297794802</v>
       </c>
       <c r="G22">
-        <v>52.85599988321169</v>
+        <v>45.67054563013947</v>
       </c>
       <c r="H22">
-        <v>13.73745196273113</v>
+        <v>17.68846672621074</v>
       </c>
       <c r="I22">
-        <v>11.15536162463283</v>
+        <v>25.90039306914069</v>
       </c>
       <c r="J22">
-        <v>11.67799386901128</v>
+        <v>11.36985667816269</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.49838666785968</v>
+        <v>14.09750696577364</v>
       </c>
       <c r="M22">
-        <v>22.14488026114703</v>
+        <v>19.36012221696155</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.87739673809325</v>
+        <v>19.72023306701852</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.855284067964428</v>
+        <v>9.074833911618681</v>
       </c>
       <c r="E23">
-        <v>19.31695239571463</v>
+        <v>15.90827109705145</v>
       </c>
       <c r="F23">
-        <v>30.68409580714826</v>
+        <v>36.91180442821912</v>
       </c>
       <c r="G23">
-        <v>51.82664164965958</v>
+        <v>45.52794740724014</v>
       </c>
       <c r="H23">
-        <v>13.56831991613006</v>
+        <v>17.69322817386604</v>
       </c>
       <c r="I23">
-        <v>11.46783240966669</v>
+        <v>25.98698564706977</v>
       </c>
       <c r="J23">
-        <v>11.54087590163367</v>
+        <v>11.32838385161983</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.16235084851813</v>
+        <v>14.00082210856049</v>
       </c>
       <c r="M23">
-        <v>21.72692539873409</v>
+        <v>19.24973792866523</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.89868819490564</v>
+        <v>19.0291156995342</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.296875528614059</v>
+        <v>8.90349978856228</v>
       </c>
       <c r="E24">
-        <v>18.21043339442444</v>
+        <v>15.51126975358748</v>
       </c>
       <c r="F24">
-        <v>29.05510443661574</v>
+        <v>36.95465905903659</v>
       </c>
       <c r="G24">
-        <v>47.95041540579346</v>
+        <v>45.02092905060322</v>
       </c>
       <c r="H24">
-        <v>12.95884369527513</v>
+        <v>17.72064820106604</v>
       </c>
       <c r="I24">
-        <v>12.65571370755085</v>
+        <v>26.32625394419407</v>
       </c>
       <c r="J24">
-        <v>11.01225659748057</v>
+        <v>11.16974435519888</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.84254144036867</v>
+        <v>13.63061970397264</v>
       </c>
       <c r="M24">
-        <v>20.08326587472856</v>
+        <v>18.82842860996528</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.69017915689142</v>
+        <v>18.25827136015661</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.67297983311526</v>
+        <v>8.712440867232404</v>
       </c>
       <c r="E25">
-        <v>16.95889527125598</v>
+        <v>15.06829280944258</v>
       </c>
       <c r="F25">
-        <v>27.45205400198492</v>
+        <v>37.05245530252706</v>
       </c>
       <c r="G25">
-        <v>43.81234280005894</v>
+        <v>44.54674191780351</v>
       </c>
       <c r="H25">
-        <v>12.36431888140623</v>
+        <v>17.77010859624723</v>
       </c>
       <c r="I25">
-        <v>13.95343074223668</v>
+        <v>26.71657108092212</v>
       </c>
       <c r="J25">
-        <v>10.42259792671235</v>
+        <v>10.99572443256953</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.31404268084408</v>
+        <v>13.22459688284678</v>
       </c>
       <c r="M25">
-        <v>18.17613421832171</v>
+        <v>18.36902390008684</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.67280729510103</v>
+        <v>19.95337270653551</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.566804068555699</v>
+        <v>8.194257925227291</v>
       </c>
       <c r="E2">
-        <v>14.73093161522375</v>
+        <v>15.98821703829348</v>
       </c>
       <c r="F2">
-        <v>37.16817263543215</v>
+        <v>26.39900970303584</v>
       </c>
       <c r="G2">
-        <v>44.26171340746591</v>
+        <v>40.80518509681112</v>
       </c>
       <c r="H2">
-        <v>17.82343068107678</v>
+        <v>11.97737744617883</v>
       </c>
       <c r="I2">
-        <v>27.02516683233621</v>
+        <v>14.92953219127667</v>
       </c>
       <c r="J2">
-        <v>10.86552837249869</v>
+        <v>9.972589569311882</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.92183536435359</v>
+        <v>13.12449225035857</v>
       </c>
       <c r="M2">
-        <v>18.02849632829411</v>
+        <v>16.84363283034558</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.26709732688305</v>
+        <v>18.69577531210379</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.465231213391602</v>
+        <v>7.857771113440994</v>
       </c>
       <c r="E3">
-        <v>14.49612687830674</v>
+        <v>15.30083074456539</v>
       </c>
       <c r="F3">
-        <v>37.27348896293255</v>
+        <v>25.76208270943337</v>
       </c>
       <c r="G3">
-        <v>44.10907488811738</v>
+        <v>38.79764122497103</v>
       </c>
       <c r="H3">
-        <v>17.87000092605768</v>
+        <v>11.74519245099569</v>
       </c>
       <c r="I3">
-        <v>27.24766214732932</v>
+        <v>15.60681696196594</v>
       </c>
       <c r="J3">
-        <v>10.77622715890346</v>
+        <v>9.658497699016264</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.71532515388489</v>
+        <v>12.34646144204319</v>
       </c>
       <c r="M3">
-        <v>17.79734882248679</v>
+        <v>15.90437699472568</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.01439893587058</v>
+        <v>17.88407802258877</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.40152559378604</v>
+        <v>7.645351048837526</v>
       </c>
       <c r="E4">
-        <v>14.34920236088944</v>
+        <v>14.86482171623415</v>
       </c>
       <c r="F4">
-        <v>37.35128231664274</v>
+        <v>25.40779000337477</v>
       </c>
       <c r="G4">
-        <v>44.03544366729268</v>
+        <v>37.58306071377753</v>
       </c>
       <c r="H4">
-        <v>17.90370112008706</v>
+        <v>11.61685760745872</v>
       </c>
       <c r="I4">
-        <v>27.39090549643653</v>
+        <v>16.03133146486854</v>
       </c>
       <c r="J4">
-        <v>10.7209460473496</v>
+        <v>9.461496018205624</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.58823988668032</v>
+        <v>11.84771460441199</v>
       </c>
       <c r="M4">
-        <v>17.65560099027812</v>
+        <v>15.30363714067751</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.91065004202817</v>
+        <v>17.54343374850416</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.375240514587116</v>
+        <v>7.557359062351803</v>
       </c>
       <c r="E5">
-        <v>14.28868306928892</v>
+        <v>14.68375970664443</v>
       </c>
       <c r="F5">
-        <v>37.38626375789543</v>
+        <v>25.2724749484059</v>
       </c>
       <c r="G5">
-        <v>44.01049746748826</v>
+        <v>37.09322065853301</v>
       </c>
       <c r="H5">
-        <v>17.91871189734099</v>
+        <v>11.56804191338173</v>
       </c>
       <c r="I5">
-        <v>27.45095136547477</v>
+        <v>16.20662259103964</v>
       </c>
       <c r="J5">
-        <v>10.69831722870684</v>
+        <v>9.380235980991396</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.53643628638564</v>
+        <v>11.63928257233148</v>
       </c>
       <c r="M5">
-        <v>17.59793751907775</v>
+        <v>15.05295488445001</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.89337990886347</v>
+        <v>17.48627658046675</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.370856660630462</v>
+        <v>7.542662953364923</v>
       </c>
       <c r="E6">
-        <v>14.27859621971044</v>
+        <v>14.65349419211933</v>
       </c>
       <c r="F6">
-        <v>37.39226985715975</v>
+        <v>25.25054710175926</v>
       </c>
       <c r="G6">
-        <v>44.00666076894236</v>
+        <v>37.01221003256079</v>
       </c>
       <c r="H6">
-        <v>17.92128140465937</v>
+        <v>11.56014339454739</v>
       </c>
       <c r="I6">
-        <v>27.46102315408627</v>
+        <v>16.23587173583135</v>
       </c>
       <c r="J6">
-        <v>10.69455395553126</v>
+        <v>9.366685609037759</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.52783508774188</v>
+        <v>11.60436282597755</v>
       </c>
       <c r="M6">
-        <v>17.58837019345007</v>
+        <v>15.01098017850285</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.01300269188429</v>
+        <v>17.87952382462168</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.401172401539245</v>
+        <v>7.644170091676352</v>
       </c>
       <c r="E7">
-        <v>14.34838873179544</v>
+        <v>14.86239337303575</v>
       </c>
       <c r="F7">
-        <v>37.351740837195</v>
+        <v>25.40592867998669</v>
       </c>
       <c r="G7">
-        <v>44.03508674699776</v>
+        <v>37.57643304995592</v>
       </c>
       <c r="H7">
-        <v>17.9038983960227</v>
+        <v>11.6161852983381</v>
       </c>
       <c r="I7">
-        <v>27.39170851434771</v>
+        <v>16.03368604330217</v>
       </c>
       <c r="J7">
-        <v>10.72064126183601</v>
+        <v>9.460403996751319</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.5875412316418</v>
+        <v>11.84492446792873</v>
       </c>
       <c r="M7">
-        <v>17.65482284301115</v>
+        <v>15.30027988918538</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.53374032343685</v>
+        <v>19.52798689792493</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.53206705604469</v>
+        <v>8.079460550611408</v>
       </c>
       <c r="E8">
-        <v>14.65056959480912</v>
+        <v>15.75416747306353</v>
       </c>
       <c r="F8">
-        <v>37.20174841720831</v>
+        <v>26.17166115150022</v>
       </c>
       <c r="G8">
-        <v>44.20492131869226</v>
+        <v>40.10954985329229</v>
       </c>
       <c r="H8">
-        <v>17.83842472800015</v>
+        <v>11.89431236695455</v>
       </c>
       <c r="I8">
-        <v>27.10051058968621</v>
+        <v>15.16133783286626</v>
       </c>
       <c r="J8">
-        <v>10.83483773909352</v>
+        <v>9.865186574955219</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.85072413952792</v>
+        <v>12.86064225061303</v>
       </c>
       <c r="M8">
-        <v>17.94879289674019</v>
+        <v>16.52485233987688</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.52098952962486</v>
+        <v>22.44576098511061</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.777598531975755</v>
+        <v>8.886118653144507</v>
       </c>
       <c r="E9">
-        <v>15.21935368572513</v>
+        <v>17.38820991653619</v>
       </c>
       <c r="F9">
-        <v>37.01267644864946</v>
+        <v>27.97194125540948</v>
       </c>
       <c r="G9">
-        <v>44.69660403036501</v>
+        <v>45.20055055421652</v>
       </c>
       <c r="H9">
-        <v>17.7508079006646</v>
+        <v>12.55648059233472</v>
       </c>
       <c r="I9">
-        <v>26.5818148201891</v>
+        <v>13.51350518826702</v>
       </c>
       <c r="J9">
-        <v>11.05469350867527</v>
+        <v>10.62376630219303</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.36209330000712</v>
+        <v>14.84329506037629</v>
       </c>
       <c r="M9">
-        <v>18.5242643127413</v>
+        <v>18.83687129245825</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.2188670303549</v>
+        <v>24.44865396620278</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.950514207585059</v>
+        <v>9.450074999257781</v>
       </c>
       <c r="E10">
-        <v>15.62025179224768</v>
+        <v>18.51532121413056</v>
       </c>
       <c r="F10">
-        <v>36.93894184721142</v>
+        <v>29.48485521238038</v>
       </c>
       <c r="G10">
-        <v>45.15291194557592</v>
+        <v>48.99898912925112</v>
       </c>
       <c r="H10">
-        <v>17.71163263210866</v>
+        <v>13.11915744223368</v>
       </c>
       <c r="I10">
-        <v>26.23226308940128</v>
+        <v>12.33232962155469</v>
       </c>
       <c r="J10">
-        <v>11.21305107262435</v>
+        <v>11.15729099940917</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.73171637095222</v>
+        <v>16.20882231194044</v>
       </c>
       <c r="M10">
-        <v>18.94326259167666</v>
+        <v>20.53973945538935</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.52910024305969</v>
+        <v>25.33655288047412</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.027417630849719</v>
+        <v>9.70067387599847</v>
       </c>
       <c r="E11">
-        <v>15.79845191475681</v>
+        <v>19.01191512345797</v>
       </c>
       <c r="F11">
-        <v>36.91975941555327</v>
+        <v>30.21613812746635</v>
       </c>
       <c r="G11">
-        <v>45.38060788478367</v>
+        <v>50.73882705194248</v>
       </c>
       <c r="H11">
-        <v>17.69934590503487</v>
+        <v>13.39275053148162</v>
       </c>
       <c r="I11">
-        <v>26.08001016398165</v>
+        <v>11.79925309718976</v>
       </c>
       <c r="J11">
-        <v>11.28426072508588</v>
+        <v>11.39454794521911</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.89790312216307</v>
+        <v>16.80105020214725</v>
       </c>
       <c r="M11">
-        <v>19.13239254272091</v>
+        <v>21.27729270740859</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.64543993190046</v>
+        <v>25.66627773299609</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.05627521223294</v>
+        <v>9.794755341516934</v>
       </c>
       <c r="E12">
-        <v>15.86529344538414</v>
+        <v>19.19765594857644</v>
       </c>
       <c r="F12">
-        <v>36.91457485165191</v>
+        <v>30.49940878916503</v>
       </c>
       <c r="G12">
-        <v>45.46966617221061</v>
+        <v>51.39950555021748</v>
       </c>
       <c r="H12">
-        <v>17.69549355220925</v>
+        <v>13.49898435338789</v>
       </c>
       <c r="I12">
-        <v>26.02332196582148</v>
+        <v>11.5978104587266</v>
       </c>
       <c r="J12">
-        <v>11.31109497182191</v>
+        <v>11.48359746827153</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.96050126104765</v>
+        <v>17.02126500887636</v>
       </c>
       <c r="M12">
-        <v>19.20374577172867</v>
+        <v>21.55137701721875</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.62043623871823</v>
+        <v>25.59555254376109</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.050072138576279</v>
+        <v>9.77452864241587</v>
       </c>
       <c r="E13">
-        <v>15.85092694850429</v>
+        <v>19.15775555851845</v>
       </c>
       <c r="F13">
-        <v>36.91559874695511</v>
+        <v>30.43811603951465</v>
       </c>
       <c r="G13">
-        <v>45.45036080896734</v>
+        <v>51.25713101046468</v>
       </c>
       <c r="H13">
-        <v>17.69628756181597</v>
+        <v>13.47598636853645</v>
       </c>
       <c r="I13">
-        <v>26.03548787556135</v>
+        <v>11.64117911896408</v>
       </c>
       <c r="J13">
-        <v>11.30532176923284</v>
+        <v>11.46445445915466</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.94703525010801</v>
+        <v>16.97401594015611</v>
       </c>
       <c r="M13">
-        <v>19.18839125996546</v>
+        <v>21.49257774385146</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.53869494168995</v>
+        <v>25.36380906160811</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.029797118043073</v>
+        <v>9.708430058036576</v>
       </c>
       <c r="E14">
-        <v>15.80396403164682</v>
+        <v>19.02724224347018</v>
       </c>
       <c r="F14">
-        <v>36.91929112751973</v>
+        <v>30.23931467343701</v>
       </c>
       <c r="G14">
-        <v>45.38787831184377</v>
+        <v>50.79314328589819</v>
       </c>
       <c r="H14">
-        <v>17.69901290490404</v>
+        <v>13.40143714987195</v>
       </c>
       <c r="I14">
-        <v>26.07532704881418</v>
+        <v>11.78267296342731</v>
       </c>
       <c r="J14">
-        <v>11.28647109564453</v>
+        <v>11.40189005215331</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.90306007458638</v>
+        <v>16.81924785690365</v>
       </c>
       <c r="M14">
-        <v>19.1382684546792</v>
+        <v>21.29994548278686</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.48847492522613</v>
+        <v>25.22101678419262</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.0173433591854</v>
+        <v>9.667838114991685</v>
       </c>
       <c r="E15">
-        <v>15.77511354327884</v>
+        <v>18.94699920418671</v>
       </c>
       <c r="F15">
-        <v>36.92182401595133</v>
+        <v>30.11837536244637</v>
       </c>
       <c r="G15">
-        <v>45.3499732876508</v>
+        <v>50.50918356136754</v>
       </c>
       <c r="H15">
-        <v>17.70078661363931</v>
+        <v>13.35611915578861</v>
       </c>
       <c r="I15">
-        <v>26.09985542384111</v>
+        <v>11.86939114063482</v>
       </c>
       <c r="J15">
-        <v>11.27490705424669</v>
+        <v>11.36346392714941</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.87607912224094</v>
+        <v>16.72392423608966</v>
       </c>
       <c r="M15">
-        <v>19.10753054602412</v>
+        <v>21.18127785879046</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.19843837929366</v>
+        <v>24.3897100384695</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.945452048711072</v>
+        <v>9.433581182279461</v>
       </c>
       <c r="E16">
-        <v>15.60851867013577</v>
+        <v>18.48254339151781</v>
       </c>
       <c r="F16">
-        <v>36.9404856999488</v>
+        <v>29.43794325343929</v>
       </c>
       <c r="G16">
-        <v>45.13843151985365</v>
+        <v>48.88553342260124</v>
       </c>
       <c r="H16">
-        <v>17.71254736189008</v>
+        <v>13.1016400730792</v>
       </c>
       <c r="I16">
-        <v>26.24234874150797</v>
+        <v>12.36723704141041</v>
       </c>
       <c r="J16">
-        <v>11.20837964256683</v>
+        <v>11.14167488408975</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.7208118214832</v>
+        <v>16.16954571060522</v>
       </c>
       <c r="M16">
-        <v>18.93086816816527</v>
+        <v>20.49080246479363</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.01858480415968</v>
+        <v>23.86799908443839</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.900890826519406</v>
+        <v>9.288372574821286</v>
       </c>
       <c r="E17">
-        <v>15.50522135994574</v>
+        <v>18.19348275073705</v>
       </c>
       <c r="F17">
-        <v>36.95562281003312</v>
+        <v>29.0316493596071</v>
       </c>
       <c r="G17">
-        <v>45.01377147435171</v>
+        <v>47.89256611541257</v>
       </c>
       <c r="H17">
-        <v>17.72118304891633</v>
+        <v>12.95010451304542</v>
       </c>
       <c r="I17">
-        <v>26.33149130707195</v>
+        <v>12.67360686388775</v>
       </c>
       <c r="J17">
-        <v>11.16734639538536</v>
+        <v>11.00420801812396</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.6250216280931</v>
+        <v>15.82211418712225</v>
       </c>
       <c r="M17">
-        <v>18.8220748347903</v>
+        <v>20.05780195611173</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.91446221769976</v>
+        <v>23.56357066894499</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.875095693013895</v>
+        <v>9.204289239500101</v>
       </c>
       <c r="E18">
-        <v>15.4454171583443</v>
+        <v>18.02570179994758</v>
       </c>
       <c r="F18">
-        <v>36.96568013561695</v>
+        <v>28.80200096789737</v>
       </c>
       <c r="G18">
-        <v>44.94396802979233</v>
+        <v>47.32254106537867</v>
       </c>
       <c r="H18">
-        <v>17.72667074093311</v>
+        <v>12.86459832791732</v>
       </c>
       <c r="I18">
-        <v>26.38340034765502</v>
+        <v>12.85023447090394</v>
       </c>
       <c r="J18">
-        <v>11.14366794323208</v>
+        <v>10.92462810138949</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.56974443319198</v>
+        <v>15.6195476668625</v>
       </c>
       <c r="M18">
-        <v>18.75936414579208</v>
+        <v>19.80525242752622</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.87909519811777</v>
+        <v>23.45974466846715</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.866333972789331</v>
+        <v>9.175722365164219</v>
       </c>
       <c r="E19">
-        <v>15.42510267599046</v>
+        <v>17.96863288446407</v>
       </c>
       <c r="F19">
-        <v>36.96931691357486</v>
+        <v>28.72493573261726</v>
       </c>
       <c r="G19">
-        <v>44.9206613672885</v>
+        <v>47.12972867841597</v>
       </c>
       <c r="H19">
-        <v>17.72861805900967</v>
+        <v>12.83592861247482</v>
       </c>
       <c r="I19">
-        <v>26.40108535724963</v>
+        <v>12.91011380069921</v>
       </c>
       <c r="J19">
-        <v>11.13563794056511</v>
+        <v>10.89759619478917</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.55099901830257</v>
+        <v>15.55048938509418</v>
       </c>
       <c r="M19">
-        <v>18.73810976405898</v>
+        <v>19.71913898548314</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.03780118113141</v>
+        <v>23.92398578916664</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.90565157438245</v>
+        <v>9.303888324158072</v>
       </c>
       <c r="E20">
-        <v>15.51625822267313</v>
+        <v>18.22441115285865</v>
       </c>
       <c r="F20">
-        <v>36.95387151962932</v>
+        <v>29.07448075841544</v>
       </c>
       <c r="G20">
-        <v>45.02684574103475</v>
+        <v>47.99815457161803</v>
       </c>
       <c r="H20">
-        <v>17.7202098433753</v>
+        <v>12.96606399712564</v>
       </c>
       <c r="I20">
-        <v>26.3219360830503</v>
+        <v>12.64095197929078</v>
       </c>
       <c r="J20">
-        <v>11.17172253511523</v>
+        <v>11.01889477168318</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.63523779488539</v>
+        <v>15.85938093305962</v>
       </c>
       <c r="M20">
-        <v>18.83367050673828</v>
+        <v>20.10425689253183</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.56273599876243</v>
+        <v>25.43205310106873</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.035759639222221</v>
+        <v>9.72786652900162</v>
       </c>
       <c r="E21">
-        <v>15.81777582350953</v>
+        <v>19.06563960351943</v>
       </c>
       <c r="F21">
-        <v>36.9181500449972</v>
+        <v>30.29753367110474</v>
       </c>
       <c r="G21">
-        <v>45.40615450359481</v>
+        <v>50.9293759695739</v>
       </c>
       <c r="H21">
-        <v>17.69819065016766</v>
+        <v>13.42326185994202</v>
       </c>
       <c r="I21">
-        <v>26.06359912522476</v>
+        <v>11.74110291196421</v>
       </c>
       <c r="J21">
-        <v>11.29201165554145</v>
+        <v>11.42028833375328</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.91598609331154</v>
+        <v>16.86481591203858</v>
       </c>
       <c r="M21">
-        <v>19.15299838488729</v>
+        <v>21.35666663981134</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.89913255731577</v>
+        <v>26.37982766096597</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.119248526729004</v>
+        <v>10.00024144465744</v>
       </c>
       <c r="E22">
-        <v>16.0110937376956</v>
+        <v>19.60199854733956</v>
       </c>
       <c r="F22">
-        <v>36.9069297794802</v>
+        <v>31.13398451481745</v>
       </c>
       <c r="G22">
-        <v>45.67054563013947</v>
+        <v>52.85599988321172</v>
       </c>
       <c r="H22">
-        <v>17.68846672621074</v>
+        <v>13.73745196273115</v>
       </c>
       <c r="I22">
-        <v>25.90039306914069</v>
+        <v>11.15536162463279</v>
       </c>
       <c r="J22">
-        <v>11.36985667816269</v>
+        <v>11.67799386901124</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.09750696577364</v>
+        <v>17.49838666785962</v>
       </c>
       <c r="M22">
-        <v>19.36012221696155</v>
+        <v>22.14488026114701</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.72023306701852</v>
+        <v>25.87739673809328</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.074833911618681</v>
+        <v>9.855284067964529</v>
       </c>
       <c r="E23">
-        <v>15.90827109705145</v>
+        <v>19.31695239571464</v>
       </c>
       <c r="F23">
-        <v>36.91180442821912</v>
+        <v>30.68409580714829</v>
       </c>
       <c r="G23">
-        <v>45.52794740724014</v>
+        <v>51.82664164965971</v>
       </c>
       <c r="H23">
-        <v>17.69322817386604</v>
+        <v>13.56831991613009</v>
       </c>
       <c r="I23">
-        <v>25.98698564706977</v>
+        <v>11.46783240966658</v>
       </c>
       <c r="J23">
-        <v>11.32838385161983</v>
+        <v>11.54087590163365</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.00082210856049</v>
+        <v>17.16235084851816</v>
       </c>
       <c r="M23">
-        <v>19.24973792866523</v>
+        <v>21.72692539873413</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.0291156995342</v>
+        <v>23.89868819490565</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.90349978856228</v>
+        <v>9.296875528613951</v>
       </c>
       <c r="E24">
-        <v>15.51126975358748</v>
+        <v>18.21043339442437</v>
       </c>
       <c r="F24">
-        <v>36.95465905903659</v>
+        <v>29.05510443661568</v>
       </c>
       <c r="G24">
-        <v>45.02092905060322</v>
+        <v>47.95041540579349</v>
       </c>
       <c r="H24">
-        <v>17.72064820106604</v>
+        <v>12.95884369527513</v>
       </c>
       <c r="I24">
-        <v>26.32625394419407</v>
+        <v>12.65571370755082</v>
       </c>
       <c r="J24">
-        <v>11.16974435519888</v>
+        <v>11.01225659748058</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.63061970397264</v>
+        <v>15.84254144036872</v>
       </c>
       <c r="M24">
-        <v>18.82842860996528</v>
+        <v>20.08326587472859</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.25827136015661</v>
+        <v>21.69017915689145</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.712440867232404</v>
+        <v>8.672979833115262</v>
       </c>
       <c r="E25">
-        <v>15.06829280944258</v>
+        <v>16.95889527125609</v>
       </c>
       <c r="F25">
-        <v>37.05245530252706</v>
+        <v>27.45205400198491</v>
       </c>
       <c r="G25">
-        <v>44.54674191780351</v>
+        <v>43.81234280005896</v>
       </c>
       <c r="H25">
-        <v>17.77010859624723</v>
+        <v>12.3643188814062</v>
       </c>
       <c r="I25">
-        <v>26.71657108092212</v>
+        <v>13.95343074223668</v>
       </c>
       <c r="J25">
-        <v>10.99572443256953</v>
+        <v>10.42259792671246</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.22459688284678</v>
+        <v>14.31404268084403</v>
       </c>
       <c r="M25">
-        <v>18.36902390008684</v>
+        <v>18.17613421832171</v>
       </c>
       <c r="N25">
         <v>0</v>
